--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -28688,7 +28688,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>8042717</v>
+        <v>8042716</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -28708,197 +28708,197 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Coca-Cola</t>
+          <t>El Geish</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>National Bank of Egypt</t>
+          <t>ENPPI</t>
         </is>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['82']</t>
         </is>
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['33']</t>
         </is>
       </c>
       <c r="Q130" t="n">
         <v>3.75</v>
       </c>
       <c r="R130" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S130" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="T130" t="n">
-        <v>1.52</v>
+        <v>1.7</v>
       </c>
       <c r="U130" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="V130" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="W130" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="X130" t="n">
-        <v>9.300000000000001</v>
+        <v>12</v>
       </c>
       <c r="Y130" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="Z130" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AA130" t="n">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="AB130" t="n">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="AC130" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="AD130" t="n">
-        <v>5.75</v>
+        <v>4.8</v>
       </c>
       <c r="AE130" t="n">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="AF130" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="AG130" t="n">
-        <v>2.66</v>
+        <v>3.13</v>
       </c>
       <c r="AH130" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AI130" t="n">
-        <v>2.19</v>
+        <v>2.35</v>
       </c>
       <c r="AJ130" t="n">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="AK130" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AL130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BN130" t="n">
         <v>1.35</v>
       </c>
-      <c r="AM130" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AN130" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO130" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AP130" t="n">
-        <v>1</v>
-      </c>
-      <c r="AQ130" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="AR130" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AS130" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="AT130" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="AU130" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV130" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW130" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX130" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY130" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ130" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA130" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB130" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC130" t="n">
-        <v>12</v>
-      </c>
-      <c r="BD130" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="BE130" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="BF130" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="BG130" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="BH130" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="BI130" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="BJ130" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="BK130" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="BL130" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="BM130" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="BN130" t="n">
-        <v>1.33</v>
-      </c>
       <c r="BO130" t="n">
-        <v>3.7</v>
+        <v>3.98</v>
       </c>
       <c r="BP130" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="131">
@@ -28906,7 +28906,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>8042716</v>
+        <v>8042717</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -28926,197 +28926,197 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>El Geish</t>
+          <t>Coca-Cola</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>ENPPI</t>
+          <t>National Bank of Egypt</t>
         </is>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>['82']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q131" t="n">
         <v>3.75</v>
       </c>
       <c r="R131" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S131" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V131" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X131" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN131" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO131" t="n">
         <v>3.7</v>
       </c>
-      <c r="T131" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U131" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V131" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="W131" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X131" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y131" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="Z131" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AA131" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AB131" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="AC131" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AD131" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AE131" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="AF131" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AG131" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="AH131" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="AI131" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="AJ131" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AK131" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="AL131" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AM131" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AN131" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AO131" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AP131" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="AQ131" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="AR131" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="AS131" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT131" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="AU131" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV131" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW131" t="n">
-        <v>13</v>
-      </c>
-      <c r="AX131" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY131" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ131" t="n">
-        <v>7</v>
-      </c>
-      <c r="BA131" t="n">
-        <v>3</v>
-      </c>
-      <c r="BB131" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC131" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD131" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="BE131" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="BF131" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="BG131" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="BH131" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="BI131" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="BJ131" t="n">
-        <v>2</v>
-      </c>
-      <c r="BK131" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="BL131" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="BM131" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="BN131" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="BO131" t="n">
-        <v>3.98</v>
-      </c>
       <c r="BP131" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="132">

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP137"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.67</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.71</v>
@@ -4407,7 +4407,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -5715,7 +5715,7 @@
         <v>1</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR24" t="n">
         <v>0.91</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.14</v>
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.29</v>
@@ -9421,7 +9421,7 @@
         <v>2</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR41" t="n">
         <v>1.07</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.29</v>
@@ -12255,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR54" t="n">
         <v>0.93</v>
@@ -12906,7 +12906,7 @@
         <v>2</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.17</v>
@@ -13999,7 +13999,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR62" t="n">
         <v>1.86</v>
@@ -15740,7 +15740,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.71</v>
@@ -16397,7 +16397,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR73" t="n">
         <v>1.07</v>
@@ -17702,7 +17702,7 @@
         <v>2</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.67</v>
@@ -19013,7 +19013,7 @@
         <v>1</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR85" t="n">
         <v>1.32</v>
@@ -20318,7 +20318,7 @@
         <v>0.75</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.5</v>
@@ -23588,7 +23588,7 @@
         <v>1</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ106" t="n">
         <v>0.71</v>
@@ -23809,7 +23809,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR107" t="n">
         <v>1.92</v>
@@ -24027,7 +24027,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR108" t="n">
         <v>1.65</v>
@@ -25550,7 +25550,7 @@
         <v>1.6</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ115" t="n">
         <v>2</v>
@@ -26861,7 +26861,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR121" t="n">
         <v>1.23</v>
@@ -27297,7 +27297,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR123" t="n">
         <v>1.97</v>
@@ -27512,7 +27512,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.29</v>
@@ -30425,6 +30425,442 @@
       </c>
       <c r="BP137" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>8042729</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>46043.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>15</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>2</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>3</v>
+      </c>
+      <c r="L138" t="n">
+        <v>3</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="n">
+        <v>4</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['16', '38', '80']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S138" t="n">
+        <v>5</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V138" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X138" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL138" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN138" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO138" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BP138" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>8042728</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>46043.625</v>
+      </c>
+      <c r="F139" t="n">
+        <v>15</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>2</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>2</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>['45+7', '69']</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R139" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S139" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T139" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V139" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X139" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BL139" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN139" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO139" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP139" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.8</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ7" t="n">
         <v>1.29</v>
@@ -2881,7 +2881,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.71</v>
@@ -5061,7 +5061,7 @@
         <v>2</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR23" t="n">
         <v>1.28</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.57</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.29</v>
@@ -6587,7 +6587,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR37" t="n">
         <v>1.79</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.5</v>
@@ -10508,10 +10508,10 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR46" t="n">
         <v>1.03</v>
@@ -11165,7 +11165,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR49" t="n">
         <v>1.22</v>
@@ -11598,7 +11598,7 @@
         <v>3</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.67</v>
@@ -12473,7 +12473,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ55" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR55" t="n">
         <v>0.84</v>
@@ -12688,7 +12688,7 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ56" t="n">
         <v>2</v>
@@ -14217,7 +14217,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR63" t="n">
         <v>1.39</v>
@@ -14650,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.67</v>
@@ -15089,7 +15089,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR67" t="n">
         <v>1.17</v>
@@ -15522,7 +15522,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.71</v>
@@ -16615,7 +16615,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR74" t="n">
         <v>1.41</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.67</v>
@@ -17269,7 +17269,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ77" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR77" t="n">
         <v>1.31</v>
@@ -18359,7 +18359,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR82" t="n">
         <v>1.66</v>
@@ -19228,7 +19228,7 @@
         <v>1.33</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.17</v>
@@ -19664,7 +19664,7 @@
         <v>1.33</v>
       </c>
       <c r="AP88" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.71</v>
@@ -20539,7 +20539,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR92" t="n">
         <v>1.24</v>
@@ -21193,7 +21193,7 @@
         <v>2</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR95" t="n">
         <v>1.7</v>
@@ -21626,7 +21626,7 @@
         <v>1.25</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ97" t="n">
         <v>2</v>
@@ -22280,7 +22280,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.67</v>
@@ -22501,7 +22501,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR101" t="n">
         <v>1.07</v>
@@ -23152,7 +23152,7 @@
         <v>1</v>
       </c>
       <c r="AP104" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ104" t="n">
         <v>0.71</v>
@@ -24460,10 +24460,10 @@
         <v>1.17</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR110" t="n">
         <v>1.09</v>
@@ -24681,7 +24681,7 @@
         <v>1</v>
       </c>
       <c r="AQ111" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR111" t="n">
         <v>1.45</v>
@@ -26640,10 +26640,10 @@
         <v>1.33</v>
       </c>
       <c r="AP120" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AR120" t="n">
         <v>1.03</v>
@@ -27948,7 +27948,7 @@
         <v>0.8</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.71</v>
@@ -29913,7 +29913,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ135" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR135" t="n">
         <v>1.9</v>
@@ -30861,6 +30861,660 @@
       </c>
       <c r="BP139" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>8042731</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>46044.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>15</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Kahraba Ismailia</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2</v>
+      </c>
+      <c r="K140" t="n">
+        <v>3</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>2</v>
+      </c>
+      <c r="N140" t="n">
+        <v>3</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['7', '10']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R140" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S140" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="V140" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X140" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN140" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO140" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BP140" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>8042730</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>46044.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>15</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Wadi Degla</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>3</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2</v>
+      </c>
+      <c r="K141" t="n">
+        <v>5</v>
+      </c>
+      <c r="L141" t="n">
+        <v>3</v>
+      </c>
+      <c r="M141" t="n">
+        <v>2</v>
+      </c>
+      <c r="N141" t="n">
+        <v>5</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['8', '20', '26']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['1', '45+6']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R141" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S141" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="T141" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V141" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X141" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL141" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN141" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO141" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP141" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>8042732</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>46044.625</v>
+      </c>
+      <c r="F142" t="n">
+        <v>15</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="n">
+        <v>2</v>
+      </c>
+      <c r="N142" t="n">
+        <v>3</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['55', '68']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R142" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S142" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T142" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V142" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X142" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BN142" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO142" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BP142" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -31233,22 +31233,22 @@
         <v>2.26</v>
       </c>
       <c r="AU141" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV141" t="n">
         <v>4</v>
       </c>
       <c r="AW141" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX141" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY141" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ141" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA141" t="n">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP142"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.71</v>
@@ -4625,7 +4625,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -8331,7 +8331,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR36" t="n">
         <v>0.93</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.8</v>
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR60" t="n">
         <v>1.35</v>
@@ -15958,7 +15958,7 @@
         <v>2</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ71" t="n">
         <v>2</v>
@@ -17923,7 +17923,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR80" t="n">
         <v>1.86</v>
@@ -20100,7 +20100,7 @@
         <v>2.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.67</v>
@@ -22065,7 +22065,7 @@
         <v>1</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR99" t="n">
         <v>1.02</v>
@@ -24024,7 +24024,7 @@
         <v>1</v>
       </c>
       <c r="AP108" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.57</v>
@@ -25771,7 +25771,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AR116" t="n">
         <v>1.25</v>
@@ -27730,7 +27730,7 @@
         <v>1.6</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.5</v>
@@ -31515,6 +31515,224 @@
       </c>
       <c r="BP142" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>8042733</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>46049.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>16</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Wadi Degla</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>2</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>2</v>
+      </c>
+      <c r="L143" t="n">
+        <v>3</v>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="n">
+        <v>4</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['25', '45+1', '67']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="R143" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="S143" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="T143" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X143" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BL143" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BN143" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO143" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BP143" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.57</v>
@@ -2009,7 +2009,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.5</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.13</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.8</v>
@@ -6369,7 +6369,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR27" t="n">
         <v>1.07</v>
@@ -7677,7 +7677,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ33" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR33" t="n">
         <v>1.01</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.67</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.71</v>
@@ -9639,7 +9639,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR42" t="n">
         <v>1.98</v>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.38</v>
@@ -11383,7 +11383,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR50" t="n">
         <v>1.62</v>
@@ -12691,7 +12691,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ56" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR56" t="n">
         <v>1.29</v>
@@ -13124,7 +13124,7 @@
         <v>2</v>
       </c>
       <c r="AP58" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.5</v>
@@ -14214,7 +14214,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ63" t="n">
         <v>1</v>
@@ -14435,7 +14435,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR64" t="n">
         <v>1.15</v>
@@ -15304,7 +15304,7 @@
         <v>1.67</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.29</v>
@@ -15961,7 +15961,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ71" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR71" t="n">
         <v>1.3</v>
@@ -17048,10 +17048,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ76" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR76" t="n">
         <v>1.58</v>
@@ -18574,7 +18574,7 @@
         <v>1.25</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.71</v>
@@ -18792,10 +18792,10 @@
         <v>1.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR84" t="n">
         <v>1.44</v>
@@ -19885,7 +19885,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ89" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR89" t="n">
         <v>1.27</v>
@@ -20975,7 +20975,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ94" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR94" t="n">
         <v>1.22</v>
@@ -21190,7 +21190,7 @@
         <v>1.2</v>
       </c>
       <c r="AP95" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ95" t="n">
         <v>1</v>
@@ -21629,7 +21629,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ97" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR97" t="n">
         <v>1.09</v>
@@ -23373,7 +23373,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR105" t="n">
         <v>1.37</v>
@@ -23806,7 +23806,7 @@
         <v>0.5</v>
       </c>
       <c r="AP107" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.71</v>
@@ -24242,7 +24242,7 @@
         <v>1.25</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.17</v>
@@ -24899,7 +24899,7 @@
         <v>0</v>
       </c>
       <c r="AQ112" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR112" t="n">
         <v>1.16</v>
@@ -25553,7 +25553,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ115" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR115" t="n">
         <v>1.52</v>
@@ -27076,7 +27076,7 @@
         <v>0.83</v>
       </c>
       <c r="AP122" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.71</v>
@@ -27294,7 +27294,7 @@
         <v>0.8</v>
       </c>
       <c r="AP123" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.57</v>
@@ -27515,7 +27515,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR124" t="n">
         <v>1.17</v>
@@ -28605,7 +28605,7 @@
         <v>1</v>
       </c>
       <c r="AQ129" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR129" t="n">
         <v>1.12</v>
@@ -29259,7 +29259,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ132" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR132" t="n">
         <v>1.18</v>
@@ -29910,7 +29910,7 @@
         <v>1</v>
       </c>
       <c r="AP135" t="n">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.13</v>
@@ -31733,6 +31733,660 @@
       </c>
       <c r="BP143" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>8223140</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>46050.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>16</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Petrojet</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>2</v>
+      </c>
+      <c r="L144" t="n">
+        <v>2</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>2</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>['21', '39']</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R144" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="S144" t="n">
+        <v>5</v>
+      </c>
+      <c r="T144" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V144" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X144" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN144" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO144" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BP144" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>8042734</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>46050.625</v>
+      </c>
+      <c r="F145" t="n">
+        <v>16</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>El Gounah</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2</v>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>2</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R145" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S145" t="n">
+        <v>8.630000000000001</v>
+      </c>
+      <c r="T145" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V145" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="X145" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BN145" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO145" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BP145" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>8042735</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>46050.625</v>
+      </c>
+      <c r="F146" t="n">
+        <v>16</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>2</v>
+      </c>
+      <c r="J146" t="n">
+        <v>1</v>
+      </c>
+      <c r="K146" t="n">
+        <v>3</v>
+      </c>
+      <c r="L146" t="n">
+        <v>3</v>
+      </c>
+      <c r="M146" t="n">
+        <v>2</v>
+      </c>
+      <c r="N146" t="n">
+        <v>5</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['45+7', '45+1', '68']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['35', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="R146" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S146" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="U146" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="V146" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X146" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL146" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BN146" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO146" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="BP146" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -32111,25 +32111,25 @@
         <v>2</v>
       </c>
       <c r="AW145" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX145" t="n">
         <v>5</v>
       </c>
       <c r="AY145" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ145" t="n">
         <v>7</v>
       </c>
       <c r="BA145" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB145" t="n">
         <v>0</v>
       </c>
       <c r="BC145" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD145" t="n">
         <v>1.29</v>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.57</v>
@@ -4843,7 +4843,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.88</v>
@@ -8985,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR39" t="n">
         <v>1.08</v>
@@ -12909,7 +12909,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR57" t="n">
         <v>0.9399999999999999</v>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.67</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.5</v>
@@ -19231,7 +19231,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR86" t="n">
         <v>1.24</v>
@@ -21844,7 +21844,7 @@
         <v>1.25</v>
       </c>
       <c r="AP98" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.29</v>
@@ -24245,7 +24245,7 @@
         <v>2</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR109" t="n">
         <v>1.5</v>
@@ -28169,7 +28169,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR127" t="n">
         <v>1.52</v>
@@ -32387,6 +32387,224 @@
       </c>
       <c r="BP146" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>8042736</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>46051.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>16</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2</v>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2</v>
+      </c>
+      <c r="N147" t="n">
+        <v>3</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['19', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>4</v>
+      </c>
+      <c r="R147" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S147" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="T147" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U147" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V147" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="W147" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="X147" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN147" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO147" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="BP147" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP147"/>
+  <dimension ref="A1:BP149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.67</v>
@@ -3535,7 +3535,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.43</v>
@@ -5279,7 +5279,7 @@
         <v>1</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR22" t="n">
         <v>1.09</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.67</v>
@@ -7895,7 +7895,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR34" t="n">
         <v>1.33</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.67</v>
@@ -9857,7 +9857,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR43" t="n">
         <v>1.73</v>
@@ -10944,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.71</v>
@@ -12037,7 +12037,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR53" t="n">
         <v>0.96</v>
@@ -12470,7 +12470,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.13</v>
@@ -14868,7 +14868,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.14</v>
@@ -15525,7 +15525,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR69" t="n">
         <v>1.38</v>
@@ -17487,7 +17487,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR78" t="n">
         <v>0.97</v>
@@ -18577,7 +18577,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR83" t="n">
         <v>2.03</v>
@@ -19010,7 +19010,7 @@
         <v>0.33</v>
       </c>
       <c r="AP85" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.71</v>
@@ -19446,7 +19446,7 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.14</v>
@@ -20321,7 +20321,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR91" t="n">
         <v>1.51</v>
@@ -22498,7 +22498,7 @@
         <v>1.6</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.38</v>
@@ -23591,7 +23591,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR106" t="n">
         <v>1.22</v>
@@ -24678,7 +24678,7 @@
         <v>0.6</v>
       </c>
       <c r="AP111" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.13</v>
@@ -25117,7 +25117,7 @@
         <v>1</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR113" t="n">
         <v>1.08</v>
@@ -26422,7 +26422,7 @@
         <v>1.8</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.67</v>
@@ -27079,7 +27079,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR122" t="n">
         <v>1.79</v>
@@ -29038,7 +29038,7 @@
         <v>1.83</v>
       </c>
       <c r="AP131" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ131" t="n">
         <v>1.71</v>
@@ -32605,6 +32605,442 @@
       </c>
       <c r="BP147" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>8042738</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>46051.625</v>
+      </c>
+      <c r="F148" t="n">
+        <v>16</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>4</v>
+      </c>
+      <c r="R148" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S148" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T148" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U148" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V148" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="W148" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X148" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BL148" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BN148" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO148" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP148" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>8042737</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>46051.625</v>
+      </c>
+      <c r="F149" t="n">
+        <v>16</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R149" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S149" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U149" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V149" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W149" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X149" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL149" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BN149" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO149" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BP149" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP149"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1791,7 +1791,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.14</v>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.75</v>
@@ -7241,7 +7241,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR31" t="n">
         <v>1.47</v>
@@ -10293,7 +10293,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR45" t="n">
         <v>1.29</v>
@@ -12252,7 +12252,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.57</v>
@@ -15307,7 +15307,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR68" t="n">
         <v>2.16</v>
@@ -16176,7 +16176,7 @@
         <v>1.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ72" t="n">
         <v>1.5</v>
@@ -21847,7 +21847,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR98" t="n">
         <v>1.07</v>
@@ -22062,7 +22062,7 @@
         <v>1.75</v>
       </c>
       <c r="AP99" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.57</v>
@@ -25114,7 +25114,7 @@
         <v>0.6</v>
       </c>
       <c r="AP113" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.43</v>
@@ -25335,7 +25335,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR114" t="n">
         <v>1.24</v>
@@ -28602,7 +28602,7 @@
         <v>1.83</v>
       </c>
       <c r="AP129" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ129" t="n">
         <v>1.75</v>
@@ -29695,7 +29695,7 @@
         <v>0</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR134" t="n">
         <v>1.2</v>
@@ -33041,6 +33041,224 @@
       </c>
       <c r="BP149" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>8042739</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>46052.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>16</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Masr</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>2</v>
+      </c>
+      <c r="N150" t="n">
+        <v>2</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['24', '87']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="R150" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="S150" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U150" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V150" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="W150" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X150" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BL150" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="BN150" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO150" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="BP150" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP150"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.5</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.67</v>
@@ -4189,7 +4189,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR29" t="n">
         <v>1.62</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR32" t="n">
         <v>1.08</v>
@@ -9636,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.75</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.14</v>
@@ -10947,7 +10947,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR48" t="n">
         <v>1.09</v>
@@ -11819,7 +11819,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR52" t="n">
         <v>1.71</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.71</v>
@@ -15086,7 +15086,7 @@
         <v>0.67</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ67" t="n">
         <v>1.38</v>
@@ -15743,7 +15743,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR70" t="n">
         <v>1.62</v>
@@ -18141,7 +18141,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR81" t="n">
         <v>1.17</v>
@@ -18356,7 +18356,7 @@
         <v>1.25</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.38</v>
@@ -19667,7 +19667,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR88" t="n">
         <v>0.97</v>
@@ -20536,7 +20536,7 @@
         <v>0.75</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.13</v>
@@ -22716,7 +22716,7 @@
         <v>1.2</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.14</v>
@@ -22937,7 +22937,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR103" t="n">
         <v>1.23</v>
@@ -23155,7 +23155,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR104" t="n">
         <v>0.97</v>
@@ -25768,7 +25768,7 @@
         <v>1.6</v>
       </c>
       <c r="AP116" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.57</v>
@@ -27951,7 +27951,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR126" t="n">
         <v>1.21</v>
@@ -28166,7 +28166,7 @@
         <v>1.2</v>
       </c>
       <c r="AP127" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.43</v>
@@ -28387,7 +28387,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR128" t="n">
         <v>1.49</v>
@@ -29041,7 +29041,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR131" t="n">
         <v>1.36</v>
@@ -29256,7 +29256,7 @@
         <v>1.83</v>
       </c>
       <c r="AP132" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.88</v>
@@ -29477,7 +29477,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR133" t="n">
         <v>1.15</v>
@@ -33259,6 +33259,442 @@
       </c>
       <c r="BP150" t="n">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>8042740</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>46052.625</v>
+      </c>
+      <c r="F151" t="n">
+        <v>16</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="n">
+        <v>1</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>4</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S151" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U151" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V151" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="W151" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X151" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL151" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BN151" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO151" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BP151" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>8042741</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>46052.625</v>
+      </c>
+      <c r="F152" t="n">
+        <v>16</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>2</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2</v>
+      </c>
+      <c r="L152" t="n">
+        <v>2</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>2</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>['37', '41']</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R152" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S152" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U152" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V152" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X152" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL152" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM152" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BN152" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO152" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BP152" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,7 +2227,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.38</v>
@@ -8113,7 +8113,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR35" t="n">
         <v>0.9</v>
@@ -9854,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.75</v>
@@ -13781,7 +13781,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR61" t="n">
         <v>1.03</v>
@@ -16833,7 +16833,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR75" t="n">
         <v>1.22</v>
@@ -17920,7 +17920,7 @@
         <v>2</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.57</v>
@@ -20754,7 +20754,7 @@
         <v>1.25</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.5</v>
@@ -21411,7 +21411,7 @@
         <v>0</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR96" t="n">
         <v>1.12</v>
@@ -25989,7 +25989,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR117" t="n">
         <v>1.26</v>
@@ -26204,7 +26204,7 @@
         <v>1.8</v>
       </c>
       <c r="AP118" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ118" t="n">
         <v>1.67</v>
@@ -33695,6 +33695,224 @@
       </c>
       <c r="BP152" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>8042743</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>46056.625</v>
+      </c>
+      <c r="F153" t="n">
+        <v>17</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="n">
+        <v>2</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>5</v>
+      </c>
+      <c r="R153" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U153" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V153" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X153" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL153" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BM153" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BN153" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO153" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BP153" t="n">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.75</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.75</v>
@@ -3753,7 +3753,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -5933,7 +5933,7 @@
         <v>2</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR25" t="n">
         <v>1.56</v>
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.5</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.57</v>
@@ -9203,7 +9203,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR40" t="n">
         <v>1.15</v>
@@ -10729,7 +10729,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR47" t="n">
         <v>1.47</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.13</v>
@@ -12034,7 +12034,7 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.43</v>
@@ -13127,7 +13127,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR58" t="n">
         <v>1.64</v>
@@ -15740,7 +15740,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.63</v>
@@ -16179,7 +16179,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR72" t="n">
         <v>1.04</v>
@@ -16394,7 +16394,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ73" t="n">
         <v>0.57</v>
@@ -18138,7 +18138,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.63</v>
@@ -20318,7 +20318,7 @@
         <v>0.75</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.43</v>
@@ -20757,7 +20757,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR93" t="n">
         <v>1.71</v>
@@ -23370,7 +23370,7 @@
         <v>1.8</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.13</v>
@@ -25550,7 +25550,7 @@
         <v>1.6</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.88</v>
@@ -27733,7 +27733,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR125" t="n">
         <v>1.66</v>
@@ -28384,7 +28384,7 @@
         <v>2</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.88</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR136" t="n">
         <v>1.2</v>
@@ -30349,7 +30349,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR137" t="n">
         <v>1.23</v>
@@ -30782,7 +30782,7 @@
         <v>0.83</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.71</v>
@@ -33913,6 +33913,442 @@
       </c>
       <c r="BP153" t="n">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>8042742</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>46057.5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>17</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1</v>
+      </c>
+      <c r="K154" t="n">
+        <v>2</v>
+      </c>
+      <c r="L154" t="n">
+        <v>2</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="n">
+        <v>3</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>['3', '88']</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>4</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S154" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X154" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BL154" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BM154" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO154" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BP154" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>8042744</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>46057.5</v>
+      </c>
+      <c r="F155" t="n">
+        <v>17</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Masr</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="n">
+        <v>2</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R155" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S155" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V155" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X155" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BL155" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM155" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BN155" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO155" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP155" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP155"/>
+  <dimension ref="A1:BP156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -7023,7 +7023,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR30" t="n">
         <v>0.8</v>
@@ -11601,7 +11601,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR51" t="n">
         <v>1.25</v>
@@ -14653,7 +14653,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR65" t="n">
         <v>1.03</v>
@@ -20103,7 +20103,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR90" t="n">
         <v>1.55</v>
@@ -26207,7 +26207,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR118" t="n">
         <v>1.69</v>
@@ -34288,13 +34288,13 @@
         <v>2</v>
       </c>
       <c r="AV155" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW155" t="n">
         <v>3</v>
       </c>
       <c r="AX155" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY155" t="n">
         <v>5</v>
@@ -34349,6 +34349,224 @@
       </c>
       <c r="BP155" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>8042745</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>46057.625</v>
+      </c>
+      <c r="F156" t="n">
+        <v>17</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Kahraba Ismailia</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>2</v>
+      </c>
+      <c r="K156" t="n">
+        <v>3</v>
+      </c>
+      <c r="L156" t="n">
+        <v>2</v>
+      </c>
+      <c r="M156" t="n">
+        <v>5</v>
+      </c>
+      <c r="N156" t="n">
+        <v>7</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['45', '62']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['38', '42', '52', '73', '87']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R156" t="n">
+        <v>2</v>
+      </c>
+      <c r="S156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V156" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X156" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>7.07</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BL156" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM156" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BN156" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO156" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="BP156" t="n">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP156"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.5</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.86</v>
@@ -2881,7 +2881,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.88</v>
@@ -4407,7 +4407,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -5061,7 +5061,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -6148,7 +6148,7 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ26" t="n">
         <v>1.14</v>
@@ -6366,7 +6366,7 @@
         <v>1</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.13</v>
@@ -6587,7 +6587,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR37" t="n">
         <v>1.79</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.43</v>
@@ -9421,7 +9421,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR41" t="n">
         <v>1.07</v>
@@ -10511,7 +10511,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR46" t="n">
         <v>1.03</v>
@@ -11598,7 +11598,7 @@
         <v>3</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.86</v>
@@ -12473,7 +12473,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR55" t="n">
         <v>0.84</v>
@@ -12688,7 +12688,7 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.88</v>
@@ -12906,7 +12906,7 @@
         <v>2</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.43</v>
@@ -13999,7 +13999,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR62" t="n">
         <v>1.86</v>
@@ -14217,7 +14217,7 @@
         <v>2</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR63" t="n">
         <v>1.39</v>
@@ -15522,7 +15522,7 @@
         <v>1.67</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.75</v>
@@ -16615,7 +16615,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR74" t="n">
         <v>1.41</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.57</v>
@@ -17269,7 +17269,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR77" t="n">
         <v>1.31</v>
@@ -17702,7 +17702,7 @@
         <v>2</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.67</v>
@@ -19013,7 +19013,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR85" t="n">
         <v>1.32</v>
@@ -19228,7 +19228,7 @@
         <v>1.33</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ86" t="n">
         <v>1.43</v>
@@ -20539,7 +20539,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR92" t="n">
         <v>1.24</v>
@@ -21193,7 +21193,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR95" t="n">
         <v>1.7</v>
@@ -21626,7 +21626,7 @@
         <v>1.25</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.75</v>
@@ -22280,7 +22280,7 @@
         <v>1.5</v>
       </c>
       <c r="AP100" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.67</v>
@@ -23588,7 +23588,7 @@
         <v>1</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ106" t="n">
         <v>0.75</v>
@@ -23809,7 +23809,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR107" t="n">
         <v>1.92</v>
@@ -24460,10 +24460,10 @@
         <v>1.17</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR110" t="n">
         <v>1.09</v>
@@ -24681,7 +24681,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR111" t="n">
         <v>1.45</v>
@@ -26861,7 +26861,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR121" t="n">
         <v>1.23</v>
@@ -27512,7 +27512,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.13</v>
@@ -27948,7 +27948,7 @@
         <v>0.8</v>
       </c>
       <c r="AP126" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ126" t="n">
         <v>0.63</v>
@@ -29913,7 +29913,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR135" t="n">
         <v>1.9</v>
@@ -30564,7 +30564,7 @@
         <v>0.67</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ138" t="n">
         <v>0.57</v>
@@ -30785,7 +30785,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR139" t="n">
         <v>1.5</v>
@@ -31000,7 +31000,7 @@
         <v>1.14</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.38</v>
@@ -31218,10 +31218,10 @@
         <v>1.14</v>
       </c>
       <c r="AP141" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ141" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR141" t="n">
         <v>1.3</v>
@@ -31439,7 +31439,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR142" t="n">
         <v>1.1</v>
@@ -34567,6 +34567,660 @@
       </c>
       <c r="BP156" t="n">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>8042746</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>46058.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>17</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>2</v>
+      </c>
+      <c r="L157" t="n">
+        <v>2</v>
+      </c>
+      <c r="M157" t="n">
+        <v>2</v>
+      </c>
+      <c r="N157" t="n">
+        <v>4</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['8', '71']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['43', '57']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="R157" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S157" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="T157" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V157" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X157" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BL157" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM157" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BN157" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO157" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP157" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>8223141</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>46058.625</v>
+      </c>
+      <c r="F158" t="n">
+        <v>17</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Wadi Degla</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="n">
+        <v>1</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R158" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S158" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T158" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U158" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V158" t="n">
+        <v>4</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X158" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL158" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM158" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BN158" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BO158" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BP158" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>8042747</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>46058.625</v>
+      </c>
+      <c r="F159" t="n">
+        <v>17</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>2</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>3</v>
+      </c>
+      <c r="L159" t="n">
+        <v>3</v>
+      </c>
+      <c r="M159" t="n">
+        <v>2</v>
+      </c>
+      <c r="N159" t="n">
+        <v>5</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['16', '32', '90+1']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['28', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="R159" t="n">
+        <v>2</v>
+      </c>
+      <c r="S159" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V159" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X159" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL159" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BM159" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BN159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO159" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP159" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -34721,13 +34721,13 @@
         <v>1.95</v>
       </c>
       <c r="AU157" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV157" t="n">
         <v>4</v>
       </c>
       <c r="AW157" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX157" t="n">
         <v>8</v>
@@ -35157,10 +35157,10 @@
         <v>2.32</v>
       </c>
       <c r="AU159" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW159" t="n">
         <v>9</v>
@@ -35169,19 +35169,19 @@
         <v>6</v>
       </c>
       <c r="AY159" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ159" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA159" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB159" t="n">
         <v>3</v>
       </c>
       <c r="BC159" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD159" t="n">
         <v>1.55</v>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ15" t="n">
         <v>1.43</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.38</v>
@@ -5715,7 +5715,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR24" t="n">
         <v>0.91</v>
@@ -6151,7 +6151,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR26" t="n">
         <v>0.7</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.89</v>
@@ -7892,7 +7892,7 @@
         <v>0</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.43</v>
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.33</v>
@@ -8767,7 +8767,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR38" t="n">
         <v>2.18</v>
@@ -10075,7 +10075,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR44" t="n">
         <v>1.07</v>
@@ -10290,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.5</v>
@@ -11816,7 +11816,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.88</v>
@@ -12255,7 +12255,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR54" t="n">
         <v>0.93</v>
@@ -13342,10 +13342,10 @@
         <v>3</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR59" t="n">
         <v>1.3</v>
@@ -14432,7 +14432,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.13</v>
@@ -14871,7 +14871,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR66" t="n">
         <v>1.1</v>
@@ -16397,7 +16397,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR73" t="n">
         <v>1.07</v>
@@ -16612,7 +16612,7 @@
         <v>1.25</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.89</v>
@@ -17266,7 +17266,7 @@
         <v>0.67</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.33</v>
@@ -17705,7 +17705,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR79" t="n">
         <v>1.07</v>
@@ -19449,7 +19449,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR87" t="n">
         <v>0.96</v>
@@ -19882,7 +19882,7 @@
         <v>1.33</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.75</v>
@@ -20972,7 +20972,7 @@
         <v>1.25</v>
       </c>
       <c r="AP94" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.88</v>
@@ -22283,7 +22283,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR100" t="n">
         <v>1.21</v>
@@ -22719,7 +22719,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR102" t="n">
         <v>1.61</v>
@@ -22934,7 +22934,7 @@
         <v>1.75</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.88</v>
@@ -24027,7 +24027,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR108" t="n">
         <v>1.65</v>
@@ -25332,7 +25332,7 @@
         <v>1</v>
       </c>
       <c r="AP114" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.5</v>
@@ -25986,7 +25986,7 @@
         <v>1.8</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.57</v>
@@ -26425,7 +26425,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR119" t="n">
         <v>1.13</v>
@@ -26858,7 +26858,7 @@
         <v>0.4</v>
       </c>
       <c r="AP121" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.75</v>
@@ -27297,7 +27297,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR123" t="n">
         <v>1.97</v>
@@ -28820,10 +28820,10 @@
         <v>1.17</v>
       </c>
       <c r="AP130" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR130" t="n">
         <v>1.31</v>
@@ -29474,7 +29474,7 @@
         <v>0.83</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.63</v>
@@ -30346,7 +30346,7 @@
         <v>2</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ137" t="n">
         <v>1.5</v>
@@ -30567,7 +30567,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR138" t="n">
         <v>1.27</v>
@@ -34070,28 +34070,28 @@
         <v>5</v>
       </c>
       <c r="AV154" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW154" t="n">
         <v>4</v>
       </c>
       <c r="AX154" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY154" t="n">
         <v>9</v>
       </c>
       <c r="AZ154" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA154" t="n">
         <v>3</v>
       </c>
       <c r="BB154" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC154" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD154" t="n">
         <v>2.31</v>
@@ -35221,6 +35221,660 @@
       </c>
       <c r="BP159" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>8042748</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>46059.5</v>
+      </c>
+      <c r="F160" t="n">
+        <v>17</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>El Gounah</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="n">
+        <v>2</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="R160" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S160" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V160" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X160" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BL160" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM160" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN160" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO160" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="BP160" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>8042750</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>46059.625</v>
+      </c>
+      <c r="F161" t="n">
+        <v>17</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S161" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T161" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U161" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V161" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="X161" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BL161" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM161" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN161" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO161" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="BP161" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>8042749</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>46059.625</v>
+      </c>
+      <c r="F162" t="n">
+        <v>17</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Petrojet</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['45+2']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R162" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S162" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="T162" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V162" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X162" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BL162" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BM162" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BN162" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO162" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BP162" t="n">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.75</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.57</v>
@@ -5933,7 +5933,7 @@
         <v>2</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR25" t="n">
         <v>1.56</v>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.88</v>
@@ -7895,7 +7895,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR34" t="n">
         <v>1.33</v>
@@ -10726,10 +10726,10 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR47" t="n">
         <v>1.47</v>
@@ -12037,7 +12037,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR53" t="n">
         <v>0.96</v>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.57</v>
@@ -15958,7 +15958,7 @@
         <v>2</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.75</v>
@@ -17484,10 +17484,10 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR78" t="n">
         <v>0.97</v>
@@ -20100,7 +20100,7 @@
         <v>2.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.86</v>
@@ -20321,7 +20321,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR91" t="n">
         <v>1.51</v>
@@ -21844,7 +21844,7 @@
         <v>1.25</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.5</v>
@@ -24024,7 +24024,7 @@
         <v>1</v>
       </c>
       <c r="AP108" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.88</v>
@@ -25117,7 +25117,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR113" t="n">
         <v>1.08</v>
@@ -27730,7 +27730,7 @@
         <v>1.6</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ125" t="n">
         <v>1.43</v>
@@ -30131,7 +30131,7 @@
         <v>0</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR136" t="n">
         <v>1.2</v>
@@ -30349,7 +30349,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR137" t="n">
         <v>1.23</v>
@@ -31654,7 +31654,7 @@
         <v>1.83</v>
       </c>
       <c r="AP143" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ143" t="n">
         <v>1.57</v>
@@ -32526,7 +32526,7 @@
         <v>1.17</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ147" t="n">
         <v>1.43</v>
@@ -32965,7 +32965,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR149" t="n">
         <v>1.29</v>
@@ -34055,7 +34055,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR154" t="n">
         <v>1.51</v>
@@ -35875,6 +35875,442 @@
       </c>
       <c r="BP162" t="n">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>8223138</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>46064.5</v>
+      </c>
+      <c r="F163" t="n">
+        <v>14</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>2</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>2</v>
+      </c>
+      <c r="L163" t="n">
+        <v>2</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>2</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['31', '43']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S163" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="V163" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X163" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL163" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM163" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BN163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO163" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="BP163" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>8042704</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>46064.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>12</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>2</v>
+      </c>
+      <c r="N164" t="n">
+        <v>3</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['24', '72']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="R164" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S164" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T164" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="V164" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X164" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BL164" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM164" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BN164" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO164" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="BP164" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP164"/>
+  <dimension ref="A1:BP166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.88</v>
@@ -4625,7 +4625,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4843,7 +4843,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.33</v>
@@ -5930,7 +5930,7 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.71</v>
@@ -8331,7 +8331,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR36" t="n">
         <v>0.93</v>
@@ -8985,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR39" t="n">
         <v>1.08</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.75</v>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.38</v>
@@ -12909,7 +12909,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR57" t="n">
         <v>0.9399999999999999</v>
@@ -13124,7 +13124,7 @@
         <v>2</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.43</v>
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR60" t="n">
         <v>1.35</v>
@@ -14214,7 +14214,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.89</v>
@@ -17048,7 +17048,7 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ76" t="n">
         <v>1.88</v>
@@ -17923,7 +17923,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR80" t="n">
         <v>1.86</v>
@@ -18792,7 +18792,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.13</v>
@@ -19231,7 +19231,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR86" t="n">
         <v>1.24</v>
@@ -21190,7 +21190,7 @@
         <v>1.2</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.89</v>
@@ -22065,7 +22065,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR99" t="n">
         <v>1.02</v>
@@ -24242,10 +24242,10 @@
         <v>1.25</v>
       </c>
       <c r="AP109" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR109" t="n">
         <v>1.5</v>
@@ -25771,7 +25771,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR116" t="n">
         <v>1.25</v>
@@ -27076,7 +27076,7 @@
         <v>0.83</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.75</v>
@@ -28169,7 +28169,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR127" t="n">
         <v>1.52</v>
@@ -31657,7 +31657,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR143" t="n">
         <v>1.76</v>
@@ -31872,7 +31872,7 @@
         <v>1.29</v>
       </c>
       <c r="AP144" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ144" t="n">
         <v>1.13</v>
@@ -32308,7 +32308,7 @@
         <v>2</v>
       </c>
       <c r="AP146" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.75</v>
@@ -32529,7 +32529,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR147" t="n">
         <v>1.17</v>
@@ -36250,13 +36250,13 @@
         <v>1</v>
       </c>
       <c r="AV164" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW164" t="n">
         <v>3</v>
       </c>
       <c r="AX164" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY164" t="n">
         <v>4</v>
@@ -36310,6 +36310,442 @@
         <v>3.91</v>
       </c>
       <c r="BP164" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>8042721</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>46064.625</v>
+      </c>
+      <c r="F165" t="n">
+        <v>14</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R165" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S165" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V165" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X165" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BL165" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BM165" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BN165" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BO165" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="BP165" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>8042722</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>46064.625</v>
+      </c>
+      <c r="F166" t="n">
+        <v>14</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Wadi Degla</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>2</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="R166" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S166" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V166" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X166" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BL166" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM166" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BN166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO166" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="BP166" t="n">
         <v>1.19</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP166"/>
+  <dimension ref="A1:BP169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.57</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.57</v>
@@ -3971,7 +3971,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR16" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.5</v>
@@ -4843,7 +4843,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
@@ -5497,7 +5497,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR23" t="n">
         <v>1.28</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.86</v>
@@ -7456,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AP32" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR32" t="n">
         <v>1.08</v>
@@ -7674,7 +7674,7 @@
         <v>3</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33" t="n">
         <v>1.88</v>
@@ -8985,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR39" t="n">
         <v>1.08</v>
@@ -10072,7 +10072,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.13</v>
@@ -10944,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.63</v>
@@ -11165,7 +11165,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR49" t="n">
         <v>1.22</v>
@@ -11819,7 +11819,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR52" t="n">
         <v>1.71</v>
@@ -12909,7 +12909,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR57" t="n">
         <v>0.9399999999999999</v>
@@ -13778,7 +13778,7 @@
         <v>1</v>
       </c>
       <c r="AP61" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.57</v>
@@ -14868,7 +14868,7 @@
         <v>1.33</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.13</v>
@@ -15086,10 +15086,10 @@
         <v>0.67</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR67" t="n">
         <v>1.17</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.38</v>
@@ -18359,7 +18359,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR82" t="n">
         <v>1.66</v>
@@ -19010,7 +19010,7 @@
         <v>0.33</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.75</v>
@@ -19231,7 +19231,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR86" t="n">
         <v>1.24</v>
@@ -19667,7 +19667,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR88" t="n">
         <v>0.97</v>
@@ -20536,7 +20536,7 @@
         <v>0.75</v>
       </c>
       <c r="AP92" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.33</v>
@@ -21844,7 +21844,7 @@
         <v>1.25</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.5</v>
@@ -22501,7 +22501,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR101" t="n">
         <v>1.07</v>
@@ -22937,7 +22937,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR103" t="n">
         <v>1.23</v>
@@ -24245,7 +24245,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR109" t="n">
         <v>1.5</v>
@@ -24678,7 +24678,7 @@
         <v>0.6</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.33</v>
@@ -25768,7 +25768,7 @@
         <v>1.6</v>
       </c>
       <c r="AP116" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ116" t="n">
         <v>1.5</v>
@@ -26643,7 +26643,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR120" t="n">
         <v>1.03</v>
@@ -28169,7 +28169,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR127" t="n">
         <v>1.52</v>
@@ -28387,7 +28387,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ128" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR128" t="n">
         <v>1.49</v>
@@ -29038,10 +29038,10 @@
         <v>1.83</v>
       </c>
       <c r="AP131" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ131" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR131" t="n">
         <v>1.36</v>
@@ -29256,7 +29256,7 @@
         <v>1.83</v>
       </c>
       <c r="AP132" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ132" t="n">
         <v>1.88</v>
@@ -31003,7 +31003,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ140" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR140" t="n">
         <v>1.18</v>
@@ -32526,10 +32526,10 @@
         <v>1.17</v>
       </c>
       <c r="AP147" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ147" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR147" t="n">
         <v>1.17</v>
@@ -32962,7 +32962,7 @@
         <v>0.5</v>
       </c>
       <c r="AP149" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ149" t="n">
         <v>0.38</v>
@@ -33401,7 +33401,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ151" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR151" t="n">
         <v>1.5</v>
@@ -33616,7 +33616,7 @@
         <v>0.71</v>
       </c>
       <c r="AP152" t="n">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ152" t="n">
         <v>0.63</v>
@@ -36232,7 +36232,7 @@
         <v>1.5</v>
       </c>
       <c r="AP164" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ164" t="n">
         <v>1.71</v>
@@ -36453,7 +36453,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ165" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR165" t="n">
         <v>1.67</v>
@@ -36747,6 +36747,660 @@
       </c>
       <c r="BP166" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>8042751</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>46069.5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>18</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Kahraba Ismailia</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="n">
+        <v>2</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R167" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S167" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="V167" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X167" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL167" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM167" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN167" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO167" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP167" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>8042752</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>46069.5</v>
+      </c>
+      <c r="F168" t="n">
+        <v>18</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="R168" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S168" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U168" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V168" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="X168" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF168" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BG168" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH168" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BI168" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BL168" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BM168" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BN168" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO168" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="BP168" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>8223139</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>46069.625</v>
+      </c>
+      <c r="F169" t="n">
+        <v>18</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="R169" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S169" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T169" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V169" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="X169" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL169" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM169" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BN169" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO169" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="BP169" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -37137,13 +37137,13 @@
         <v>8</v>
       </c>
       <c r="BA168" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB168" t="n">
         <v>3</v>
       </c>
       <c r="BC168" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD168" t="n">
         <v>2.14</v>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP169"/>
+  <dimension ref="A1:BP176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.13</v>
@@ -3317,7 +3317,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.38</v>
@@ -3753,7 +3753,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR15" t="n">
         <v>0</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.75</v>
@@ -4625,7 +4625,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.11</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.33</v>
@@ -5276,7 +5276,7 @@
         <v>1</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.75</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.88</v>
@@ -6369,7 +6369,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR27" t="n">
         <v>1.07</v>
@@ -6802,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR29" t="n">
         <v>1.62</v>
@@ -7241,7 +7241,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR31" t="n">
         <v>1.47</v>
@@ -7677,7 +7677,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR33" t="n">
         <v>1.01</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.57</v>
@@ -8331,7 +8331,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR36" t="n">
         <v>0.93</v>
@@ -8764,7 +8764,7 @@
         <v>3</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.57</v>
@@ -9203,7 +9203,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR40" t="n">
         <v>1.15</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ41" t="n">
         <v>0.75</v>
@@ -9636,10 +9636,10 @@
         <v>1</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR42" t="n">
         <v>1.98</v>
@@ -10293,7 +10293,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR45" t="n">
         <v>1.29</v>
@@ -10508,7 +10508,7 @@
         <v>1</v>
       </c>
       <c r="AP46" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ46" t="n">
         <v>0.89</v>
@@ -10726,7 +10726,7 @@
         <v>1</v>
       </c>
       <c r="AP47" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.71</v>
@@ -10947,7 +10947,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR48" t="n">
         <v>1.09</v>
@@ -11383,7 +11383,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR50" t="n">
         <v>1.62</v>
@@ -12252,7 +12252,7 @@
         <v>1.5</v>
       </c>
       <c r="AP54" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ54" t="n">
         <v>0.88</v>
@@ -12470,7 +12470,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.33</v>
@@ -12691,7 +12691,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR56" t="n">
         <v>1.29</v>
@@ -13124,10 +13124,10 @@
         <v>2</v>
       </c>
       <c r="AP58" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ58" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR58" t="n">
         <v>1.64</v>
@@ -13563,7 +13563,7 @@
         <v>0</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR60" t="n">
         <v>1.35</v>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
       <c r="AP62" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ62" t="n">
         <v>0.75</v>
@@ -14435,7 +14435,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR64" t="n">
         <v>1.15</v>
@@ -14650,7 +14650,7 @@
         <v>2</v>
       </c>
       <c r="AP65" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ65" t="n">
         <v>1.86</v>
@@ -15304,10 +15304,10 @@
         <v>1.67</v>
       </c>
       <c r="AP68" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR68" t="n">
         <v>2.16</v>
@@ -15743,7 +15743,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR70" t="n">
         <v>1.62</v>
@@ -15958,10 +15958,10 @@
         <v>2</v>
       </c>
       <c r="AP71" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR71" t="n">
         <v>1.3</v>
@@ -16176,10 +16176,10 @@
         <v>1.33</v>
       </c>
       <c r="AP72" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ72" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR72" t="n">
         <v>1.04</v>
@@ -17048,10 +17048,10 @@
         <v>1.33</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR76" t="n">
         <v>1.58</v>
@@ -17923,7 +17923,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR80" t="n">
         <v>1.86</v>
@@ -18141,7 +18141,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR81" t="n">
         <v>1.17</v>
@@ -18356,7 +18356,7 @@
         <v>1.25</v>
       </c>
       <c r="AP82" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ82" t="n">
         <v>1.33</v>
@@ -18574,7 +18574,7 @@
         <v>1.25</v>
       </c>
       <c r="AP83" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ83" t="n">
         <v>0.75</v>
@@ -18795,7 +18795,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR84" t="n">
         <v>1.44</v>
@@ -19446,7 +19446,7 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.13</v>
@@ -19664,7 +19664,7 @@
         <v>1.33</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.78</v>
@@ -19885,7 +19885,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR89" t="n">
         <v>1.27</v>
@@ -20100,7 +20100,7 @@
         <v>2.25</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.86</v>
@@ -20757,7 +20757,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR93" t="n">
         <v>1.71</v>
@@ -20975,7 +20975,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR94" t="n">
         <v>1.22</v>
@@ -21190,7 +21190,7 @@
         <v>1.2</v>
       </c>
       <c r="AP95" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.89</v>
@@ -21629,7 +21629,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR97" t="n">
         <v>1.09</v>
@@ -21847,7 +21847,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR98" t="n">
         <v>1.07</v>
@@ -22062,10 +22062,10 @@
         <v>1.75</v>
       </c>
       <c r="AP99" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR99" t="n">
         <v>1.02</v>
@@ -22498,7 +22498,7 @@
         <v>1.6</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.33</v>
@@ -22716,7 +22716,7 @@
         <v>1.2</v>
       </c>
       <c r="AP102" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ102" t="n">
         <v>1.13</v>
@@ -23152,10 +23152,10 @@
         <v>1</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR104" t="n">
         <v>0.97</v>
@@ -23373,7 +23373,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR105" t="n">
         <v>1.37</v>
@@ -23806,7 +23806,7 @@
         <v>0.5</v>
       </c>
       <c r="AP107" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ107" t="n">
         <v>0.75</v>
@@ -24024,7 +24024,7 @@
         <v>1</v>
       </c>
       <c r="AP108" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ108" t="n">
         <v>0.88</v>
@@ -24899,7 +24899,7 @@
         <v>0</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR112" t="n">
         <v>1.16</v>
@@ -25114,7 +25114,7 @@
         <v>0.6</v>
       </c>
       <c r="AP113" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.38</v>
@@ -25335,7 +25335,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR114" t="n">
         <v>1.24</v>
@@ -25553,7 +25553,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR115" t="n">
         <v>1.52</v>
@@ -25771,7 +25771,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR116" t="n">
         <v>1.25</v>
@@ -26422,7 +26422,7 @@
         <v>1.8</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.57</v>
@@ -26640,7 +26640,7 @@
         <v>1.33</v>
       </c>
       <c r="AP120" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ120" t="n">
         <v>1.33</v>
@@ -27076,7 +27076,7 @@
         <v>0.83</v>
       </c>
       <c r="AP122" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ122" t="n">
         <v>0.75</v>
@@ -27294,7 +27294,7 @@
         <v>0.8</v>
       </c>
       <c r="AP123" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ123" t="n">
         <v>0.88</v>
@@ -27515,7 +27515,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR124" t="n">
         <v>1.17</v>
@@ -27730,10 +27730,10 @@
         <v>1.6</v>
       </c>
       <c r="AP125" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ125" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR125" t="n">
         <v>1.66</v>
@@ -27951,7 +27951,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ126" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR126" t="n">
         <v>1.21</v>
@@ -28166,7 +28166,7 @@
         <v>1.2</v>
       </c>
       <c r="AP127" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ127" t="n">
         <v>1.11</v>
@@ -28602,10 +28602,10 @@
         <v>1.83</v>
       </c>
       <c r="AP129" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ129" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR129" t="n">
         <v>1.12</v>
@@ -29259,7 +29259,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ132" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR132" t="n">
         <v>1.18</v>
@@ -29477,7 +29477,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ133" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR133" t="n">
         <v>1.15</v>
@@ -29695,7 +29695,7 @@
         <v>0</v>
       </c>
       <c r="AQ134" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR134" t="n">
         <v>1.2</v>
@@ -29910,7 +29910,7 @@
         <v>1</v>
       </c>
       <c r="AP135" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ135" t="n">
         <v>1.33</v>
@@ -31436,7 +31436,7 @@
         <v>0.86</v>
       </c>
       <c r="AP142" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ142" t="n">
         <v>1.33</v>
@@ -31654,10 +31654,10 @@
         <v>1.83</v>
       </c>
       <c r="AP143" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ143" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR143" t="n">
         <v>1.76</v>
@@ -31872,10 +31872,10 @@
         <v>1.29</v>
       </c>
       <c r="AP144" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ144" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR144" t="n">
         <v>1.71</v>
@@ -32090,10 +32090,10 @@
         <v>2</v>
       </c>
       <c r="AP145" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ145" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AR145" t="n">
         <v>1.84</v>
@@ -32311,7 +32311,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ146" t="n">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR146" t="n">
         <v>1.36</v>
@@ -32744,7 +32744,7 @@
         <v>0.71</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.75</v>
@@ -33180,10 +33180,10 @@
         <v>1.29</v>
       </c>
       <c r="AP150" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ150" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AR150" t="n">
         <v>1.12</v>
@@ -33398,7 +33398,7 @@
         <v>1.71</v>
       </c>
       <c r="AP151" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ151" t="n">
         <v>1.78</v>
@@ -33619,7 +33619,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ152" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR152" t="n">
         <v>1.23</v>
@@ -34273,7 +34273,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR155" t="n">
         <v>1.41</v>
@@ -36014,7 +36014,7 @@
         <v>0.43</v>
       </c>
       <c r="AP163" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ163" t="n">
         <v>0.38</v>
@@ -36450,7 +36450,7 @@
         <v>1.43</v>
       </c>
       <c r="AP165" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ165" t="n">
         <v>1.11</v>
@@ -36671,7 +36671,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ166" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR166" t="n">
         <v>1.31</v>
@@ -37125,16 +37125,16 @@
         <v>2</v>
       </c>
       <c r="AW168" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX168" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY168" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ168" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA168" t="n">
         <v>6</v>
@@ -37401,6 +37401,1532 @@
       </c>
       <c r="BP169" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>8042753</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>46072.6875</v>
+      </c>
+      <c r="F170" t="n">
+        <v>18</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="n">
+        <v>2</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="R170" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S170" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T170" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X170" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL170" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM170" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BN170" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO170" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP170" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>8042755</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>46072.6875</v>
+      </c>
+      <c r="F171" t="n">
+        <v>18</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Petrojet</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="n">
+        <v>2</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="R171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S171" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V171" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X171" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL171" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM171" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO171" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP171" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>8042754</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>46072.6875</v>
+      </c>
+      <c r="F172" t="n">
+        <v>18</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>El Gounah</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['35']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R172" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S172" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U172" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V172" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X172" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>9.18</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL172" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM172" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN172" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO172" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP172" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>8042756</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>46073.6875</v>
+      </c>
+      <c r="F173" t="n">
+        <v>18</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="n">
+        <v>0</v>
+      </c>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R173" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S173" t="n">
+        <v>4</v>
+      </c>
+      <c r="T173" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V173" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X173" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BL173" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM173" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BN173" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO173" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP173" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>8042757</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>46073.6875</v>
+      </c>
+      <c r="F174" t="n">
+        <v>18</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>2</v>
+      </c>
+      <c r="M174" t="n">
+        <v>0</v>
+      </c>
+      <c r="N174" t="n">
+        <v>2</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>['84', '90']</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R174" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S174" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="T174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="V174" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X174" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BL174" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM174" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BN174" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO174" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP174" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>8042758</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>46073.6875</v>
+      </c>
+      <c r="F175" t="n">
+        <v>18</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Wadi Degla</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>1</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="n">
+        <v>2</v>
+      </c>
+      <c r="N175" t="n">
+        <v>3</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['45+3', '61']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>5</v>
+      </c>
+      <c r="R175" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S175" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T175" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V175" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X175" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BL175" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BM175" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN175" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO175" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BP175" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>8042759</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>46073.6875</v>
+      </c>
+      <c r="F176" t="n">
+        <v>18</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Masr</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="R176" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="S176" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T176" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V176" t="n">
+        <v>4</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X176" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BL176" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BM176" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BN176" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO176" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="BP176" t="n">
+        <v>1.15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP176"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.67</v>
@@ -5061,7 +5061,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR21" t="n">
         <v>0</v>
@@ -5279,7 +5279,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR22" t="n">
         <v>1.09</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.89</v>
@@ -7238,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31" t="n">
         <v>1.44</v>
@@ -8113,7 +8113,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR35" t="n">
         <v>0.9</v>
@@ -8549,7 +8549,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR37" t="n">
         <v>1.79</v>
@@ -8982,7 +8982,7 @@
         <v>1</v>
       </c>
       <c r="AP39" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.11</v>
@@ -9857,7 +9857,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR43" t="n">
         <v>1.73</v>
@@ -10290,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.44</v>
@@ -11380,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.11</v>
@@ -12473,7 +12473,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR55" t="n">
         <v>0.84</v>
@@ -13560,7 +13560,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.67</v>
@@ -13781,7 +13781,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR61" t="n">
         <v>1.03</v>
@@ -14432,7 +14432,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ64" t="n">
         <v>1.11</v>
@@ -15525,7 +15525,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR69" t="n">
         <v>1.38</v>
@@ -15740,7 +15740,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ70" t="n">
         <v>0.5600000000000001</v>
@@ -16833,7 +16833,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR75" t="n">
         <v>1.22</v>
@@ -17269,7 +17269,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR77" t="n">
         <v>1.31</v>
@@ -18577,7 +18577,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ83" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR83" t="n">
         <v>2.03</v>
@@ -19882,7 +19882,7 @@
         <v>1.33</v>
       </c>
       <c r="AP89" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.56</v>
@@ -20318,7 +20318,7 @@
         <v>0.75</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.38</v>
@@ -20539,7 +20539,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR92" t="n">
         <v>1.24</v>
@@ -21408,10 +21408,10 @@
         <v>1.5</v>
       </c>
       <c r="AP96" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR96" t="n">
         <v>1.12</v>
@@ -22934,7 +22934,7 @@
         <v>1.75</v>
       </c>
       <c r="AP103" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.78</v>
@@ -23591,7 +23591,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR106" t="n">
         <v>1.22</v>
@@ -24681,7 +24681,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR111" t="n">
         <v>1.45</v>
@@ -24896,7 +24896,7 @@
         <v>1.6</v>
       </c>
       <c r="AP112" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AQ112" t="n">
         <v>1.56</v>
@@ -25550,7 +25550,7 @@
         <v>1.6</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.67</v>
@@ -25989,7 +25989,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ117" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR117" t="n">
         <v>1.26</v>
@@ -26858,7 +26858,7 @@
         <v>0.4</v>
       </c>
       <c r="AP121" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ121" t="n">
         <v>0.75</v>
@@ -27079,7 +27079,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ122" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR122" t="n">
         <v>1.79</v>
@@ -29692,7 +29692,7 @@
         <v>1</v>
       </c>
       <c r="AP134" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AQ134" t="n">
         <v>1.44</v>
@@ -29913,7 +29913,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ135" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR135" t="n">
         <v>1.9</v>
@@ -30128,7 +30128,7 @@
         <v>1.67</v>
       </c>
       <c r="AP136" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.71</v>
@@ -30782,7 +30782,7 @@
         <v>0.83</v>
       </c>
       <c r="AP139" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ139" t="n">
         <v>0.75</v>
@@ -31439,7 +31439,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ142" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR142" t="n">
         <v>1.1</v>
@@ -32747,7 +32747,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ148" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR148" t="n">
         <v>1.06</v>
@@ -33837,7 +33837,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR153" t="n">
         <v>1.48</v>
@@ -34052,7 +34052,7 @@
         <v>1.8</v>
       </c>
       <c r="AP154" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AQ154" t="n">
         <v>1.71</v>
@@ -34488,7 +34488,7 @@
         <v>1.67</v>
       </c>
       <c r="AP156" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="AQ156" t="n">
         <v>1.86</v>
@@ -34927,7 +34927,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ158" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR158" t="n">
         <v>1.29</v>
@@ -35360,7 +35360,7 @@
         <v>1.67</v>
       </c>
       <c r="AP160" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ160" t="n">
         <v>1.57</v>
@@ -38927,6 +38927,660 @@
       </c>
       <c r="BP176" t="n">
         <v>1.15</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>8042760</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>46076.6875</v>
+      </c>
+      <c r="F177" t="n">
+        <v>19</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>El Gounah</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Al Mokawloon</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R177" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S177" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="T177" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2</v>
+      </c>
+      <c r="V177" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X177" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL177" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM177" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN177" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO177" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BP177" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>8042761</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>46076.6875</v>
+      </c>
+      <c r="F178" t="n">
+        <v>19</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Smouha SC</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Al Ahly</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="n">
+        <v>1</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="R178" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T178" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V178" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X178" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL178" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM178" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO178" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP178" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>8042762</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>46076.6875</v>
+      </c>
+      <c r="F179" t="n">
+        <v>19</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Kahraba Ismailia</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>El Geish</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>2</v>
+      </c>
+      <c r="M179" t="n">
+        <v>2</v>
+      </c>
+      <c r="N179" t="n">
+        <v>4</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['45+3', '90+2']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['51', '82']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="R179" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S179" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T179" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V179" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X179" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BL179" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BM179" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="BN179" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP179" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -39087,13 +39087,13 @@
         <v>1</v>
       </c>
       <c r="AW177" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX177" t="n">
         <v>5</v>
       </c>
       <c r="AY177" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ177" t="n">
         <v>6</v>
@@ -39102,10 +39102,10 @@
         <v>6</v>
       </c>
       <c r="BB177" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC177" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD177" t="n">
         <v>2.43</v>

--- a/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Egypt Egyptian Premier League_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.89</v>
@@ -3099,7 +3099,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13" t="n">
         <v>1.56</v>
@@ -3535,7 +3535,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR14" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.33</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.78</v>
@@ -4407,7 +4407,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
@@ -4840,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.11</v>
@@ -5494,7 +5494,7 @@
         <v>1</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.33</v>
@@ -5715,7 +5715,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR24" t="n">
         <v>0.91</v>
@@ -5930,10 +5930,10 @@
         <v>1</v>
       </c>
       <c r="AP25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>1.88</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>1.71</v>
       </c>
       <c r="AR25" t="n">
         <v>1.56</v>
@@ -6148,10 +6148,10 @@
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR26" t="n">
         <v>0.7</v>
@@ -7023,7 +7023,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR30" t="n">
         <v>0.8</v>
@@ -7895,7 +7895,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR34" t="n">
         <v>1.33</v>
@@ -8110,7 +8110,7 @@
         <v>1</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.75</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.67</v>
@@ -8546,7 +8546,7 @@
         <v>1</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.3</v>
@@ -8767,7 +8767,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR38" t="n">
         <v>2.18</v>
@@ -9200,7 +9200,7 @@
         <v>3</v>
       </c>
       <c r="AP40" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.38</v>
@@ -9421,7 +9421,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR41" t="n">
         <v>1.07</v>
@@ -9854,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.78</v>
@@ -10075,7 +10075,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR44" t="n">
         <v>1.07</v>
@@ -10729,7 +10729,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR47" t="n">
         <v>1.47</v>
@@ -11162,7 +11162,7 @@
         <v>1</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ49" t="n">
         <v>1.33</v>
@@ -11601,7 +11601,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR51" t="n">
         <v>1.25</v>
@@ -11816,7 +11816,7 @@
         <v>0.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.78</v>
@@ -12034,10 +12034,10 @@
         <v>1.5</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR53" t="n">
         <v>0.96</v>
@@ -12255,7 +12255,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR54" t="n">
         <v>0.93</v>
@@ -12470,7 +12470,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.3</v>
@@ -12688,7 +12688,7 @@
         <v>2</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.67</v>
@@ -12906,7 +12906,7 @@
         <v>2</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.11</v>
@@ -13345,7 +13345,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ59" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR59" t="n">
         <v>1.3</v>
@@ -13999,7 +13999,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR62" t="n">
         <v>1.86</v>
@@ -14214,7 +14214,7 @@
         <v>1.67</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ63" t="n">
         <v>0.89</v>
@@ -14653,7 +14653,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR65" t="n">
         <v>1.03</v>
@@ -14871,7 +14871,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR66" t="n">
         <v>1.1</v>
@@ -16394,10 +16394,10 @@
         <v>1.33</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR73" t="n">
         <v>1.07</v>
@@ -16612,7 +16612,7 @@
         <v>1.25</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.89</v>
@@ -16830,7 +16830,7 @@
         <v>1</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.75</v>
@@ -17487,7 +17487,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR78" t="n">
         <v>0.97</v>
@@ -17702,10 +17702,10 @@
         <v>2</v>
       </c>
       <c r="AP79" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR79" t="n">
         <v>1.07</v>
@@ -17920,7 +17920,7 @@
         <v>2</v>
       </c>
       <c r="AP80" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.67</v>
@@ -18138,7 +18138,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.5600000000000001</v>
@@ -18792,7 +18792,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.11</v>
@@ -19013,7 +19013,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR85" t="n">
         <v>1.32</v>
@@ -19446,10 +19446,10 @@
         <v>1.25</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR87" t="n">
         <v>0.96</v>
@@ -20103,7 +20103,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR90" t="n">
         <v>1.55</v>
@@ -20321,7 +20321,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR91" t="n">
         <v>1.51</v>
@@ -20754,7 +20754,7 @@
         <v>1.25</v>
       </c>
       <c r="AP93" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ93" t="n">
         <v>1.38</v>
@@ -21626,7 +21626,7 @@
         <v>1.25</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.56</v>
@@ -22283,7 +22283,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR100" t="n">
         <v>1.21</v>
@@ -22498,7 +22498,7 @@
         <v>1.6</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ101" t="n">
         <v>1.33</v>
@@ -22719,7 +22719,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ102" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR102" t="n">
         <v>1.61</v>
@@ -23370,7 +23370,7 @@
         <v>1.8</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ105" t="n">
         <v>1.11</v>
@@ -23588,7 +23588,7 @@
         <v>1</v>
       </c>
       <c r="AP106" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ106" t="n">
         <v>0.78</v>
@@ -23809,7 +23809,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR107" t="n">
         <v>1.92</v>
@@ -24027,7 +24027,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ108" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR108" t="n">
         <v>1.65</v>
@@ -24242,7 +24242,7 @@
         <v>1.25</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.11</v>
@@ -24460,7 +24460,7 @@
         <v>1.17</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ110" t="n">
         <v>0.89</v>
@@ -25117,7 +25117,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ113" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR113" t="n">
         <v>1.08</v>
@@ -25986,7 +25986,7 @@
         <v>1.8</v>
       </c>
       <c r="AP117" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ117" t="n">
         <v>1.75</v>
@@ -26204,10 +26204,10 @@
         <v>1.8</v>
       </c>
       <c r="AP118" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ118" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR118" t="n">
         <v>1.69</v>
@@ -26422,10 +26422,10 @@
         <v>1.8</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR119" t="n">
         <v>1.13</v>
@@ -26861,7 +26861,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ121" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR121" t="n">
         <v>1.23</v>
@@ -27297,7 +27297,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ123" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR123" t="n">
         <v>1.97</v>
@@ -27512,7 +27512,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ124" t="n">
         <v>1.11</v>
@@ -28384,7 +28384,7 @@
         <v>2</v>
       </c>
       <c r="AP128" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ128" t="n">
         <v>1.78</v>
@@ -28823,7 +28823,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ130" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR130" t="n">
         <v>1.31</v>
@@ -29474,7 +29474,7 @@
         <v>0.83</v>
       </c>
       <c r="AP133" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ133" t="n">
         <v>0.5600000000000001</v>
@@ -30131,7 +30131,7 @@
         <v>0.11</v>
       </c>
       <c r="AQ136" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR136" t="n">
         <v>1.2</v>
@@ -30346,10 +30346,10 @@
         <v>2</v>
       </c>
       <c r="AP137" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ137" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR137" t="n">
         <v>1.23</v>
@@ -30564,10 +30564,10 @@
         <v>0.67</v>
       </c>
       <c r="AP138" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ138" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR138" t="n">
         <v>1.27</v>
@@ -30785,7 +30785,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ139" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR139" t="n">
         <v>1.5</v>
@@ -31000,7 +31000,7 @@
         <v>1.14</v>
       </c>
       <c r="AP140" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ140" t="n">
         <v>1.33</v>
@@ -32308,7 +32308,7 @@
         <v>2</v>
       </c>
       <c r="AP146" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ146" t="n">
         <v>1.56</v>
@@ -32744,7 +32744,7 @@
         <v>0.71</v>
       </c>
       <c r="AP148" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ148" t="n">
         <v>0.78</v>
@@ -32965,7 +32965,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ149" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR149" t="n">
         <v>1.29</v>
@@ -33834,7 +33834,7 @@
         <v>1.67</v>
       </c>
       <c r="AP153" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ153" t="n">
         <v>1.75</v>
@@ -34055,7 +34055,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ154" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR154" t="n">
         <v>1.51</v>
@@ -34270,7 +34270,7 @@
         <v>1.5</v>
       </c>
       <c r="AP155" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ155" t="n">
         <v>1.38</v>
@@ -34491,7 +34491,7 @@
         <v>0.11</v>
       </c>
       <c r="AQ156" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR156" t="n">
         <v>1.14</v>
@@ -34706,10 +34706,10 @@
         <v>0.71</v>
       </c>
       <c r="AP157" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ157" t="n">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR157" t="n">
         <v>1.2</v>
@@ -35142,7 +35142,7 @@
         <v>1</v>
       </c>
       <c r="AP159" t="n">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ159" t="n">
         <v>0.89</v>
@@ -35363,7 +35363,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ160" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR160" t="n">
         <v>1.22</v>
@@ -35581,7 +35581,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ161" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR161" t="n">
         <v>1.46</v>
@@ -35796,10 +35796,10 @@
         <v>1.14</v>
       </c>
       <c r="AP162" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ162" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR162" t="n">
         <v>1.17</v>
@@ -36017,7 +36017,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ163" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR163" t="n">
         <v>1.83</v>
@@ -36235,7 +36235,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ164" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AR164" t="n">
         <v>1.23</v>
@@ -36668,7 +36668,7 @@
         <v>1.57</v>
       </c>
       <c r="AP166" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ166" t="n">
         <v>1.67</v>
@@ -38848,7 +38848,7 @@
         <v>1.5</v>
       </c>
       <c r="AP176" t="n">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ176" t="n">
         <v>1.44</v>
@@ -39581,6 +39581,1532 @@
       </c>
       <c r="BP179" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>8042764</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>46077.6875</v>
+      </c>
+      <c r="F180" t="n">
+        <v>19</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Ghazl El Mehalla</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Pyramids FC</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>2</v>
+      </c>
+      <c r="K180" t="n">
+        <v>3</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="n">
+        <v>3</v>
+      </c>
+      <c r="N180" t="n">
+        <v>4</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['29']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['25', '44', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="R180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S180" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V180" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X180" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL180" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM180" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BN180" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO180" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP180" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>8042766</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>46077.6875</v>
+      </c>
+      <c r="F181" t="n">
+        <v>19</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Haras El Hodood</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>ENPPI</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R181" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S181" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T181" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V181" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X181" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL181" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM181" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BN181" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO181" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP181" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>8042765</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>46077.6875</v>
+      </c>
+      <c r="F182" t="n">
+        <v>19</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Ceramica Cleopatra</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Ismaily SC</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="n">
+        <v>2</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R182" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S182" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T182" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U182" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V182" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X182" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL182" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM182" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN182" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO182" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="BP182" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>8042763</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>46077.6875</v>
+      </c>
+      <c r="F183" t="n">
+        <v>19</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Masr</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Zamalek</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>1</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="n">
+        <v>2</v>
+      </c>
+      <c r="N183" t="n">
+        <v>3</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>['22', '82']</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="R183" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S183" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T183" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V183" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X183" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BH183" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL183" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM183" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN183" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO183" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP183" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>8042768</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>46078.6875</v>
+      </c>
+      <c r="F184" t="n">
+        <v>19</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>National Bank of Egypt</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Pharco</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="n">
+        <v>0</v>
+      </c>
+      <c r="N184" t="n">
+        <v>1</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R184" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S184" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="T184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V184" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X184" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL184" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN184" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO184" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP184" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>8042769</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>46078.6875</v>
+      </c>
+      <c r="F185" t="n">
+        <v>19</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Al Masry</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Coca-Cola</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>1</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R185" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S185" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V185" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X185" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL185" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM185" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BN185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO185" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP185" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>8042767</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Egypt Egyptian Premier League</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>46078.6875</v>
+      </c>
+      <c r="F186" t="n">
+        <v>19</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Petrojet</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Al Ittihad</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>0</v>
+      </c>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>3</v>
+      </c>
+      <c r="R186" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S186" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T186" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V186" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X186" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL186" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM186" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="BN186" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO186" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP186" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>
